--- a/Pruebas Experimentales/Prueba Temperatura/Prueba 21C/PRUEBA_TEMPERATURA_23_21C.xlsx
+++ b/Pruebas Experimentales/Prueba Temperatura/Prueba 21C/PRUEBA_TEMPERATURA_23_21C.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Datos crudos" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>Timestamp</t>
   </si>
@@ -73,109 +73,91 @@
     <t>Temperature</t>
   </si>
   <si>
-    <t>2023-12-09 01:40:30</t>
-  </si>
-  <si>
-    <t>2023-12-09 01:41:32</t>
-  </si>
-  <si>
-    <t>2023-12-09 01:42:34</t>
-  </si>
-  <si>
-    <t>2023-12-09 01:43:37</t>
-  </si>
-  <si>
-    <t>2023-12-09 01:44:39</t>
-  </si>
-  <si>
-    <t>2023-12-09 01:45:42</t>
-  </si>
-  <si>
-    <t>2023-12-09 01:46:44</t>
-  </si>
-  <si>
-    <t>2023-12-09 01:47:47</t>
-  </si>
-  <si>
-    <t>2023-12-09 01:48:49</t>
-  </si>
-  <si>
-    <t>2023-12-09 01:49:52</t>
-  </si>
-  <si>
-    <t>2023-12-09 01:50:54</t>
-  </si>
-  <si>
-    <t>2023-12-09 01:51:57</t>
-  </si>
-  <si>
-    <t>2023-12-09 01:52:59</t>
-  </si>
-  <si>
-    <t>2023-12-09 01:54:02</t>
-  </si>
-  <si>
-    <t>2023-12-09 01:55:04</t>
-  </si>
-  <si>
-    <t>2023-12-09 01:56:07</t>
-  </si>
-  <si>
-    <t>2023-12-09 01:57:09</t>
-  </si>
-  <si>
-    <t>2023-12-09 01:58:11</t>
-  </si>
-  <si>
-    <t>2023-12-09 01:59:14</t>
-  </si>
-  <si>
-    <t>2023-12-09 02:00:16</t>
-  </si>
-  <si>
-    <t>2023-12-09 02:01:19</t>
-  </si>
-  <si>
-    <t>2023-12-09 02:02:21</t>
-  </si>
-  <si>
-    <t>2023-12-09 02:03:24</t>
-  </si>
-  <si>
-    <t>2023-12-09 02:04:26</t>
-  </si>
-  <si>
-    <t>2023-12-09 02:05:29</t>
-  </si>
-  <si>
-    <t>2023-12-09 02:06:31</t>
-  </si>
-  <si>
-    <t>2023-12-09 02:07:34</t>
-  </si>
-  <si>
-    <t>2023-12-09 02:08:36</t>
-  </si>
-  <si>
-    <t>2023-12-09 02:09:39</t>
-  </si>
-  <si>
-    <t>2023-12-09 02:10:41</t>
-  </si>
-  <si>
-    <t>2023-12-09 02:11:44</t>
-  </si>
-  <si>
-    <t>2023-12-09 02:12:46</t>
-  </si>
-  <si>
-    <t>2023-12-09 02:13:49</t>
-  </si>
-  <si>
-    <t>2023-12-09 02:14:51</t>
-  </si>
-  <si>
-    <t>2023-12-09 02:15:53</t>
+    <t>2023-12-12 01:33:34</t>
+  </si>
+  <si>
+    <t>2023-12-12 01:34:37</t>
+  </si>
+  <si>
+    <t>2023-12-12 01:35:40</t>
+  </si>
+  <si>
+    <t>2023-12-12 01:36:43</t>
+  </si>
+  <si>
+    <t>2023-12-12 01:37:46</t>
+  </si>
+  <si>
+    <t>2023-12-12 01:38:49</t>
+  </si>
+  <si>
+    <t>2023-12-12 01:39:53</t>
+  </si>
+  <si>
+    <t>2023-12-12 01:40:56</t>
+  </si>
+  <si>
+    <t>2023-12-12 01:41:59</t>
+  </si>
+  <si>
+    <t>2023-12-12 01:43:02</t>
+  </si>
+  <si>
+    <t>2023-12-12 01:44:05</t>
+  </si>
+  <si>
+    <t>2023-12-12 01:45:08</t>
+  </si>
+  <si>
+    <t>2023-12-12 01:46:12</t>
+  </si>
+  <si>
+    <t>2023-12-12 01:47:15</t>
+  </si>
+  <si>
+    <t>2023-12-12 01:48:18</t>
+  </si>
+  <si>
+    <t>2023-12-12 01:49:21</t>
+  </si>
+  <si>
+    <t>2023-12-12 01:50:24</t>
+  </si>
+  <si>
+    <t>2023-12-12 01:51:28</t>
+  </si>
+  <si>
+    <t>2023-12-12 01:52:31</t>
+  </si>
+  <si>
+    <t>2023-12-12 01:53:34</t>
+  </si>
+  <si>
+    <t>2023-12-12 01:54:37</t>
+  </si>
+  <si>
+    <t>2023-12-12 01:55:40</t>
+  </si>
+  <si>
+    <t>2023-12-12 01:56:43</t>
+  </si>
+  <si>
+    <t>2023-12-12 01:57:47</t>
+  </si>
+  <si>
+    <t>2023-12-12 01:58:50</t>
+  </si>
+  <si>
+    <t>2023-12-12 01:59:53</t>
+  </si>
+  <si>
+    <t>2023-12-12 02:00:56</t>
+  </si>
+  <si>
+    <t>2023-12-12 02:01:59</t>
+  </si>
+  <si>
+    <t>2023-12-12 02:03:02</t>
   </si>
 </sst>
 </file>
@@ -751,6 +733,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -841,114 +824,96 @@
           </c:trendline>
           <c:yVal>
             <c:numRef>
-              <c:f>'Datos crudos'!$E$2:$E$36</c:f>
+              <c:f>'Datos crudos'!$E$2:$E$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>25.673076923076898</c:v>
+                  <c:v>26.8531468531468</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25.1486013986014</c:v>
+                  <c:v>26.1975524475524</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>25.8041958041958</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.279720279720301</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24.624125874125799</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.0996503496503</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>23.444055944055901</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
+                  <c:v>24.361888111888099</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>23.837412587412501</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>23.0506993006993</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>22.919580419580399</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
+                  <c:v>24.230769230769202</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24.0996503496503</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23.837412587412501</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>22.526223776223699</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="13">
                   <c:v>22.526223776223699</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="14">
+                  <c:v>23.312937062936999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>23.7062937062937</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>23.837412587412501</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22.3951048951049</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>22.526223776223699</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>22.6573426573426</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="20">
                   <c:v>22.526223776223699</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="21">
+                  <c:v>22.3951048951049</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22.3951048951049</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>22.132867132867101</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>22.0017482517482</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22.263986013985999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>22.263986013985999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>22.0017482517482</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>21.870629370629299</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>21.608391608391599</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>21.870629370629299</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>21.608391608391599</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>21.608391608391599</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21.870629370629299</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>21.608391608391599</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>21.608391608391599</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>21.739510489510501</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>22.263986013985999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>22.132867132867101</c:v>
+                  <c:v>22.263986013985999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>21.608391608391599</c:v>
+                  <c:v>22.919580419580399</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>21.870629370629299</c:v>
+                  <c:v>23.0506993006993</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>22.132867132867101</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>21.608391608391599</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>22.132867132867101</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>21.870629370629299</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>21.870629370629299</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>21.739510489510501</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>21.608391608391599</c:v>
+                  <c:v>24.624125874125799</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1036,6 +1001,7 @@
         <c:axId val="465779280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="21"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1204,37 +1170,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>21.739510489510501</c:v>
+                  <c:v>22.3951048951049</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>22.526223776223699</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.6573426573426</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.526223776223699</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.3951048951049</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.3951048951049</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22.132867132867101</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>22.263986013985999</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>22.132867132867101</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>21.608391608391599</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>21.870629370629299</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>22.132867132867101</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>21.608391608391599</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>22.132867132867101</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>21.870629370629299</c:v>
+                  <c:v>22.263986013985999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>21.870629370629299</c:v>
+                  <c:v>22.919580419580399</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>21.739510489510501</c:v>
+                  <c:v>23.0506993006993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1331,10 +1297,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>21.906389065479946</c:v>
+                  <c:v>22.502383979656681</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21.906389065479946</c:v>
+                  <c:v>22.502383979656681</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3056,10 +3022,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3105,17 +3071,17 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>25.673076923076898</v>
+        <v>26.8531468531468</v>
       </c>
       <c r="G2" t="s">
         <v>2</v>
       </c>
       <c r="H2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I2" s="4">
         <f>INDEX(C:C,H2)-C2</f>
-        <v>7.9513888849760406E-3</v>
+        <v>8.7731481544324197E-3</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -3132,14 +3098,14 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>25.1486013986014</v>
+        <v>26.1975524475524</v>
       </c>
       <c r="G3" t="s">
         <v>3</v>
       </c>
       <c r="H3">
-        <f>COUNT(E:E)</f>
-        <v>35</v>
+        <f>COUNT(E:E)-1</f>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -3156,7 +3122,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>23.444055944055901</v>
+        <v>25.8041958041958</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -3173,7 +3139,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>23.837412587412501</v>
+        <v>25.279720279720301</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -3190,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>23.0506993006993</v>
+        <v>24.624125874125799</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -3207,7 +3173,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>22.919580419580399</v>
+        <v>24.0996503496503</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -3224,7 +3190,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="3">
-        <v>22.526223776223699</v>
+        <v>23.444055944055901</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -3241,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>22.526223776223699</v>
+        <v>24.361888111888099</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -3258,7 +3224,7 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>22.6573426573426</v>
+        <v>23.837412587412501</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -3275,7 +3241,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>22.526223776223699</v>
+        <v>24.230769230769202</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -3292,7 +3258,7 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>22.132867132867101</v>
+        <v>24.0996503496503</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -3309,7 +3275,7 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>22.0017482517482</v>
+        <v>23.837412587412501</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -3326,7 +3292,7 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>22.263986013985999</v>
+        <v>22.526223776223699</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -3343,7 +3309,7 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>22.263986013985999</v>
+        <v>22.526223776223699</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -3360,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>22.0017482517482</v>
+        <v>23.312937062936999</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -3377,7 +3343,7 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>21.870629370629299</v>
+        <v>23.7062937062937</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -3390,11 +3356,11 @@
       <c r="C18" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="3">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>21.608391608391599</v>
+        <v>23.837412587412501</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -3411,7 +3377,7 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>21.870629370629299</v>
+        <v>22.3951048951049</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -3428,7 +3394,7 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>21.608391608391599</v>
+        <v>22.526223776223699</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -3445,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>21.608391608391599</v>
+        <v>22.6573426573426</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -3462,7 +3428,7 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>21.870629370629299</v>
+        <v>22.526223776223699</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -3479,7 +3445,7 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>21.608391608391599</v>
+        <v>22.3951048951049</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -3496,7 +3462,7 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>21.608391608391599</v>
+        <v>22.3951048951049</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -3513,7 +3479,7 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>21.739510489510501</v>
+        <v>22.132867132867101</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -3547,7 +3513,7 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>22.132867132867101</v>
+        <v>22.263986013985999</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -3564,7 +3530,7 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>21.608391608391599</v>
+        <v>22.919580419580399</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -3581,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>21.870629370629299</v>
+        <v>23.0506993006993</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -3598,109 +3564,7 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>22.132867132867101</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>23</v>
-      </c>
-      <c r="B31">
-        <v>21</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>21.608391608391599</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>23</v>
-      </c>
-      <c r="B32">
-        <v>21</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>22.132867132867101</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>23</v>
-      </c>
-      <c r="B33">
-        <v>21</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <v>21.870629370629299</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>23</v>
-      </c>
-      <c r="B34">
-        <v>21</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <v>21.870629370629299</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>23</v>
-      </c>
-      <c r="B35">
-        <v>21</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <v>21.739510489510501</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>23</v>
-      </c>
-      <c r="B36">
-        <v>21</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <v>21.608391608391599</v>
+        <v>24.624125874125799</v>
       </c>
     </row>
   </sheetData>
@@ -3713,8 +3577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3738,46 +3602,46 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
-        <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A2)-ROW($A$2)-10),"")</f>
-        <v>2023-12-09 02:04:26</v>
+        <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A2)-ROW($A$2)-9),"")</f>
+        <v>2023-12-12 01:51:28</v>
       </c>
       <c r="B2">
-        <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A2)-ROW($A$2)-10),"")</f>
-        <v>21.739510489510501</v>
+        <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A2)-ROW($A$2)-9),"")</f>
+        <v>22.3951048951049</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
         <f>AVERAGE(B:B)</f>
-        <v>21.906389065479946</v>
+        <v>22.502383979656681</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
-        <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A3)-ROW($A$2)-10),"")</f>
-        <v>2023-12-09 02:05:29</v>
+        <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A3)-ROW($A$2)-9),"")</f>
+        <v>2023-12-12 01:52:31</v>
       </c>
       <c r="B3">
-        <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A3)-ROW($A$2)-10),"")</f>
-        <v>22.263986013985999</v>
+        <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A3)-ROW($A$2)-9),"")</f>
+        <v>22.526223776223699</v>
       </c>
       <c r="D3">
         <v>11</v>
       </c>
       <c r="E3">
         <f>AVERAGE(B:B)</f>
-        <v>21.906389065479946</v>
+        <v>22.502383979656681</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
-        <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A4)-ROW($A$2)-10),"")</f>
-        <v>2023-12-09 02:06:31</v>
+        <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A4)-ROW($A$2)-9),"")</f>
+        <v>2023-12-12 01:53:34</v>
       </c>
       <c r="B4">
-        <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A4)-ROW($A$2)-10),"")</f>
-        <v>22.132867132867101</v>
+        <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A4)-ROW($A$2)-9),"")</f>
+        <v>22.6573426573426</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>6</v>
@@ -3785,36 +3649,36 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
-        <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A5)-ROW($A$2)-10),"")</f>
-        <v>2023-12-09 02:07:34</v>
+        <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A5)-ROW($A$2)-9),"")</f>
+        <v>2023-12-12 01:54:37</v>
       </c>
       <c r="B5">
-        <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A5)-ROW($A$2)-10),"")</f>
-        <v>21.608391608391599</v>
+        <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A5)-ROW($A$2)-9),"")</f>
+        <v>22.526223776223699</v>
       </c>
       <c r="E5">
         <f>_xlfn.STDEV.S(B:B)</f>
-        <v>0.22779172000491135</v>
+        <v>0.28010492863317021</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
-        <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A6)-ROW($A$2)-10),"")</f>
-        <v>2023-12-09 02:08:36</v>
+        <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A6)-ROW($A$2)-9),"")</f>
+        <v>2023-12-12 01:55:40</v>
       </c>
       <c r="B6">
-        <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A6)-ROW($A$2)-10),"")</f>
-        <v>21.870629370629299</v>
+        <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A6)-ROW($A$2)-9),"")</f>
+        <v>22.3951048951049</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
-        <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A7)-ROW($A$2)-10),"")</f>
-        <v>2023-12-09 02:09:39</v>
+        <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A7)-ROW($A$2)-9),"")</f>
+        <v>2023-12-12 01:56:43</v>
       </c>
       <c r="B7">
-        <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A7)-ROW($A$2)-10),"")</f>
-        <v>22.132867132867101</v>
+        <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A7)-ROW($A$2)-9),"")</f>
+        <v>22.3951048951049</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>7</v>
@@ -3822,37 +3686,37 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
-        <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A8)-ROW($A$2)-10),"")</f>
-        <v>2023-12-09 02:10:41</v>
+        <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A8)-ROW($A$2)-9),"")</f>
+        <v>2023-12-12 01:57:47</v>
       </c>
       <c r="B8">
-        <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A8)-ROW($A$2)-10),"")</f>
-        <v>21.608391608391599</v>
+        <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A8)-ROW($A$2)-9),"")</f>
+        <v>22.132867132867101</v>
       </c>
       <c r="E8">
         <f>MAX(B:B)</f>
-        <v>22.263986013985999</v>
+        <v>23.0506993006993</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
-        <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A9)-ROW($A$2)-10),"")</f>
-        <v>2023-12-09 02:11:44</v>
+        <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A9)-ROW($A$2)-9),"")</f>
+        <v>2023-12-12 01:58:50</v>
       </c>
       <c r="B9">
-        <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A9)-ROW($A$2)-10),"")</f>
-        <v>22.132867132867101</v>
+        <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A9)-ROW($A$2)-9),"")</f>
+        <v>22.263986013985999</v>
       </c>
       <c r="K9" s="3"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
-        <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A10)-ROW($A$2)-10),"")</f>
-        <v>2023-12-09 02:12:46</v>
+        <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A10)-ROW($A$2)-9),"")</f>
+        <v>2023-12-12 01:59:53</v>
       </c>
       <c r="B10">
-        <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A10)-ROW($A$2)-10),"")</f>
-        <v>21.870629370629299</v>
+        <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A10)-ROW($A$2)-9),"")</f>
+        <v>22.263986013985999</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>8</v>
@@ -3860,26 +3724,26 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
-        <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A11)-ROW($A$2)-10),"")</f>
-        <v>2023-12-09 02:13:49</v>
+        <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A11)-ROW($A$2)-9),"")</f>
+        <v>2023-12-12 02:00:56</v>
       </c>
       <c r="B11">
-        <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A11)-ROW($A$2)-10),"")</f>
-        <v>21.870629370629299</v>
+        <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A11)-ROW($A$2)-9),"")</f>
+        <v>22.919580419580399</v>
       </c>
       <c r="E11">
         <f>MIN(B:B)</f>
-        <v>21.608391608391599</v>
+        <v>22.132867132867101</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
-        <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A12)-ROW($A$2)-10),"")</f>
-        <v>2023-12-09 02:14:51</v>
+        <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A12)-ROW($A$2)-9),"")</f>
+        <v>2023-12-12 02:01:59</v>
       </c>
       <c r="B12">
-        <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A12)-ROW($A$2)-10),"")</f>
-        <v>21.739510489510501</v>
+        <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A12)-ROW($A$2)-9),"")</f>
+        <v>23.0506993006993</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
@@ -3899,7 +3763,6 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D15">
-        <f>11</f>
         <v>11</v>
       </c>
       <c r="E15">
